--- a/Assets/Excel/Card_IronClead_Info.xlsx
+++ b/Assets/Excel/Card_IronClead_Info.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17685" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="카드설명" sheetId="1" r:id="rId1"/>
+    <sheet name="카드능력치" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>타격</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +56,22 @@
   </si>
   <si>
     <t>피해를 8 줍니다.\n취약을 2 부여합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost/type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,13 +407,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="123.25" customWidth="1"/>
+    <col min="4" max="4" width="66.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -446,4 +463,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Excel/Card_IronClead_Info.xlsx
+++ b/Assets/Excel/Card_IronClead_Info.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikangMark\Desktop\Git_SlayTheSpire\Sls\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh741963\Desktop\Slay\Sls\Sls\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17685" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17685"/>
   </bookViews>
   <sheets>
     <sheet name="카드설명" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>타격</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>WEAK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘을 2 얻습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -458,6 +470,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -467,10 +493,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -522,6 +548,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excel/Card_IronClead_Info.xlsx
+++ b/Assets/Excel/Card_IronClead_Info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh741963\Desktop\Slay\Sls\Sls\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikangMark\Desktop\Git_SlayTheSpire\Sls\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피해를 8 줍니다.\n취약을 2 부여합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cost/type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,6 +80,10 @@
   </si>
   <si>
     <t>발화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해를 8 줍니다.취약을 2 부여합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +420,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -467,7 +467,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -475,13 +475,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -506,19 +506,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">

--- a/Assets/Excel/Card_IronClead_Info.xlsx
+++ b/Assets/Excel/Card_IronClead_Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17685" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="카드설명" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>타격</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,21 @@
   <si>
     <t>피해를 8 줍니다.취약을 2 부여합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점액투성이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABNORMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTINCTION</t>
   </si>
 </sst>
 </file>
@@ -417,14 +432,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -482,6 +499,20 @@
       </c>
       <c r="D4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -493,18 +524,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -520,8 +552,11 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -529,7 +564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -537,7 +572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -548,12 +583,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="D5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
